--- a/Meassurment 1/calculation.xlsx
+++ b/Meassurment 1/calculation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Projects\ESP_UWB\ESP_UWB_calib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janjiri\Desktop\Soubory\ESP_UWB\ESP_UWB_calib\Meassurment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39A3384-8FD8-4E0A-B38F-2C3349D954C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB5966D-617A-4BB6-A2E9-1430FE54FA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="33795" windowHeight="21000" activeTab="1" xr2:uid="{C8ED39F9-F74F-4B75-95D3-877036CB2EC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C8ED39F9-F74F-4B75-95D3-877036CB2EC8}"/>
   </bookViews>
   <sheets>
     <sheet name="averages" sheetId="2" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -616,7 +616,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -701,7 +701,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="cs-CZ"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -981,7 +981,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="cs-CZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1019,7 +1019,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="601805935"/>
@@ -1102,7 +1102,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="cs-CZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1140,7 +1140,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="601807375"/>
@@ -1188,7 +1188,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1264,7 +1264,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1349,7 +1349,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="cs-CZ"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1639,7 +1639,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="cs-CZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1677,7 +1677,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="601805935"/>
@@ -1763,7 +1763,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="cs-CZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1801,7 +1801,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="601807375"/>
@@ -1849,7 +1849,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1925,7 +1925,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2010,7 +2010,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="cs-CZ"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2297,7 +2297,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="cs-CZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2335,7 +2335,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="601805935"/>
@@ -2421,7 +2421,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="cs-CZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2459,7 +2459,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="601807375"/>
@@ -2507,7 +2507,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2583,7 +2583,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2667,7 +2667,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="cs-CZ"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2954,7 +2954,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="cs-CZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2992,7 +2992,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="601805935"/>
@@ -3078,7 +3078,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="cs-CZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3116,7 +3116,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="601807375"/>
@@ -3164,7 +3164,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3240,7 +3240,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3325,7 +3325,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="cs-CZ"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3612,7 +3612,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="cs-CZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3650,7 +3650,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="601805935"/>
@@ -3736,7 +3736,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="cs-CZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3774,7 +3774,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="601807375"/>
@@ -3822,7 +3822,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4241,7 +4241,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="131007919"/>
@@ -4303,7 +4303,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="130983439"/>
@@ -4345,7 +4345,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4382,7 +4382,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11268,8 +11268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73F72BA-731E-4750-AF50-C6116C1DC89A}">
   <dimension ref="B2:AH49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W48" sqref="W48"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
